--- a/documents/Статистика торговли криптовалютами.xlsx
+++ b/documents/Статистика торговли криптовалютами.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Время суток</t>
   </si>
@@ -100,13 +100,28 @@
   </si>
   <si>
     <t>л. тренда</t>
+  </si>
+  <si>
+    <t>памп</t>
+  </si>
+  <si>
+    <t>MATIC</t>
+  </si>
+  <si>
+    <t>5 мин</t>
+  </si>
+  <si>
+    <t>л. тренда, поддержка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +180,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -189,10 +212,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -210,6 +234,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -219,9 +246,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,22 +557,22 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12" style="14" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="4" customWidth="1"/>
     <col min="12" max="12" width="5.28515625" style="8" customWidth="1"/>
     <col min="13" max="13" width="24.42578125" style="5" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" style="4" customWidth="1"/>
@@ -550,19 +584,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
       <c r="N1" s="2"/>
@@ -572,33 +606,33 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="7"/>
       <c r="M2" s="5" t="s">
         <v>0</v>
@@ -611,23 +645,23 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="5" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -644,6 +678,30 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.89</v>
+      </c>
       <c r="M4" s="5" t="s">
         <v>3</v>
       </c>
@@ -664,6 +722,36 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1.17</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>-0.8</v>
+      </c>
       <c r="M5" s="5" t="s">
         <v>1</v>
       </c>

--- a/documents/Статистика торговли криптовалютами.xlsx
+++ b/documents/Статистика торговли криптовалютами.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Время суток</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>л. тренда, поддержка</t>
+  </si>
+  <si>
+    <t>ADA</t>
   </si>
 </sst>
 </file>
@@ -237,6 +240,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -245,12 +254,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,7 +560,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -569,7 +572,7 @@
     <col min="5" max="5" width="34.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="24" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12" style="14" customWidth="1"/>
+    <col min="8" max="8" width="12" style="11" customWidth="1"/>
     <col min="9" max="9" width="15.140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" style="4" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" style="4" customWidth="1"/>
@@ -584,19 +587,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
       <c r="N1" s="2"/>
@@ -606,33 +609,33 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
       <c r="L2" s="7"/>
       <c r="M2" s="5" t="s">
         <v>0</v>
@@ -645,14 +648,14 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -740,7 +743,7 @@
       <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="11">
         <v>1.17</v>
       </c>
       <c r="I5" s="4">
@@ -766,6 +769,36 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.67</v>
+      </c>
       <c r="M6" s="5" t="s">
         <v>9</v>
       </c>

--- a/documents/Статистика торговли криптовалютами.xlsx
+++ b/documents/Статистика торговли криптовалютами.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Время суток</t>
   </si>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -681,6 +681,9 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -725,6 +728,9 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
@@ -769,6 +775,9 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
